--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpear\Desktop\ADAM\ADAM SD Tape Drive Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE4F8317-5AF1-4E6B-907F-75B9E751F203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3874EA1-6B74-43AD-96DA-A8CFD42E1EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F469CE28-0CCF-4049-AF1B-1BED615764E7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>Description</t>
   </si>
@@ -213,12 +213,42 @@
   </si>
   <si>
     <t>Coleco ADAM SD DDP V3 Bill of Materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (1 x 2) Position Shunt Connector Black Open Top 0.100" (2.54mm) Gold </t>
+  </si>
+  <si>
+    <t>OLED Power Select</t>
+  </si>
+  <si>
+    <t>digikey.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S9337-ND </t>
+  </si>
+  <si>
+    <t>Approx Cost Per Unit (2020)</t>
+  </si>
+  <si>
+    <t>Price varies. You can buy</t>
+  </si>
+  <si>
+    <t>pre-wired connectors off</t>
+  </si>
+  <si>
+    <t>eBay or assortment kits and</t>
+  </si>
+  <si>
+    <t>wire them yourself.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -276,6 +306,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,22 +628,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC0B099-3F79-4650-BF0E-557E32CE6ADE}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="1" max="1" width="42" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -614,8 +653,8 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -630,9 +669,12 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F3" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -647,9 +689,12 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="7">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -664,9 +709,12 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F5" s="7">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
@@ -681,9 +729,12 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F6" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
@@ -698,9 +749,12 @@
       <c r="E7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F7" s="7">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
@@ -715,9 +769,12 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F8" s="7">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
@@ -732,9 +789,12 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F9" s="7">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
@@ -749,9 +809,12 @@
       <c r="E10" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F10" s="7">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
@@ -766,9 +829,12 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F11" s="7">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B12" t="s">
@@ -783,9 +849,12 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F12" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
@@ -800,9 +869,12 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F13" s="7">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B14" t="s">
@@ -817,9 +889,12 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F14" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B15" t="s">
@@ -834,9 +909,12 @@
       <c r="E15" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F15" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
@@ -851,9 +929,12 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F16" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B18" t="s">
@@ -865,9 +946,12 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="F18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B19" t="s">
@@ -879,9 +963,12 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B20" t="s">
@@ -893,9 +980,12 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="F20" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B21" t="s">
@@ -907,9 +997,12 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="F21" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B22" t="s">
@@ -921,9 +1014,12 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F22" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B23" t="s">
@@ -935,9 +1031,12 @@
       <c r="E23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="F23" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B24" t="s">
@@ -949,9 +1048,12 @@
       <c r="E24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F24" s="7">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B25" t="s">
@@ -962,6 +1064,29 @@
       </c>
       <c r="E25" s="3">
         <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
